--- a/M03DB/S02/Editorial-c.xlsx
+++ b/M03DB/S02/Editorial-c.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12470"/>
+    <workbookView windowWidth="18350" windowHeight="8270"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schema" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Modelo Lógico</t>
   </si>
   <si>
-    <t>T. Sucursales</t>
+    <t>Sucursales</t>
   </si>
   <si>
     <t>campo</t>
@@ -47,6 +48,9 @@
     <t>PK</t>
   </si>
   <si>
+    <t>FK</t>
+  </si>
+  <si>
     <t>domicilio</t>
   </si>
   <si>
@@ -62,7 +66,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>T. Empleados</t>
+    <t>Empleados</t>
   </si>
   <si>
     <t>nombre</t>
@@ -72,6 +76,108 @@
   </si>
   <si>
     <t>rfc</t>
+  </si>
+  <si>
+    <t>cod_suc</t>
+  </si>
+  <si>
+    <t>Sucursales(código)</t>
+  </si>
+  <si>
+    <t>Domicilio</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Lagos 15</t>
+  </si>
+  <si>
+    <t>55 1020 3015</t>
+  </si>
+  <si>
+    <t>CDMXSUR1</t>
+  </si>
+  <si>
+    <t>Corregidora 20</t>
+  </si>
+  <si>
+    <t>55 2020 3015</t>
+  </si>
+  <si>
+    <t>CDMXSUR2</t>
+  </si>
+  <si>
+    <t>Bosques 25</t>
+  </si>
+  <si>
+    <t>55 1020 3025</t>
+  </si>
+  <si>
+    <t>GDLOTE1</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>Cod_suc</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>AAA0115</t>
+  </si>
+  <si>
+    <t>55 1020 3010</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>BBBB22B</t>
+  </si>
+  <si>
+    <t>55 2020 3010</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Olmos</t>
+  </si>
+  <si>
+    <t>FCD1587</t>
+  </si>
+  <si>
+    <t>55 1020 3020</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>RGH2548</t>
+  </si>
+  <si>
+    <t>55 1020 3021</t>
   </si>
 </sst>
 </file>
@@ -117,12 +223,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -289,6 +396,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,12 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,19 +705,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,7 +726,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,16 +750,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -661,78 +768,78 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,15 +850,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,18 +1184,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F17"/>
+  <dimension ref="B3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="3.63636363636364" customWidth="1"/>
     <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
     <col min="4" max="4" width="7.81818181818182" customWidth="1"/>
     <col min="5" max="5" width="8.36363636363636" customWidth="1"/>
     <col min="6" max="6" width="3.54545454545455" customWidth="1"/>
+    <col min="7" max="7" width="17.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="23.5" spans="2:2">
@@ -1092,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1108,48 +1221,54 @@
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
         <v>120</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>15</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
@@ -1163,56 +1282,244 @@
       <c r="F13" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="4" t="s">
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <v>80</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5">
         <v>12</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4">
-        <v>50</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4">
-        <v>80</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="F18" s="7"/>
+      <c r="G18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:G17"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="14.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="12.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="11.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="12.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="11.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="10.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="23.5" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4">
-        <v>15</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/M03DB/S02/Editorial-c.xlsx
+++ b/M03DB/S02/Editorial-c.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8270"/>
+    <workbookView windowWidth="23530" windowHeight="12470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
-    <sheet name="Datos" sheetId="2" r:id="rId2"/>
+    <sheet name="C. Datos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,9 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
-  <si>
-    <t>Modelo Lógico</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+  <si>
+    <t>2) Modelo Lógico: Schema</t>
   </si>
   <si>
     <t>Sucursales</t>
@@ -51,12 +51,18 @@
     <t>FK</t>
   </si>
   <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
     <t>domicilio</t>
   </si>
   <si>
     <t>varchar</t>
   </si>
   <si>
+    <t>Foreign Key</t>
+  </si>
+  <si>
     <t>teléfono</t>
   </si>
   <si>
@@ -75,6 +81,15 @@
     <t>apellidos</t>
   </si>
   <si>
+    <t>fec. nac.</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fec. ing.</t>
+  </si>
+  <si>
     <t>rfc</t>
   </si>
   <si>
@@ -84,6 +99,9 @@
     <t>Sucursales(código)</t>
   </si>
   <si>
+    <t>2) Modelo Lógico: Catálogo de Datos</t>
+  </si>
+  <si>
     <t>Domicilio</t>
   </si>
   <si>
@@ -120,6 +138,15 @@
     <t>GDLOTE1</t>
   </si>
   <si>
+    <t>Ríos 20</t>
+  </si>
+  <si>
+    <t>55 1020 2028</t>
+  </si>
+  <si>
+    <t>MTYNTE1</t>
+  </si>
+  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -159,13 +186,7 @@
     <t>Juan</t>
   </si>
   <si>
-    <t>Olmos</t>
-  </si>
-  <si>
     <t>FCD1587</t>
-  </si>
-  <si>
-    <t>55 1020 3020</t>
   </si>
   <si>
     <t>Alberto</t>
@@ -381,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3A4E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +753,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,16 +777,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -768,99 +795,100 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,12 +946,75 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00C3A4E1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400685</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Elbow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="4218305" y="979170"/>
+          <a:ext cx="1312545" cy="1212215"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 605"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,13 +1275,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G18"/>
+  <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.63636363636364" customWidth="1"/>
     <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
@@ -1198,6 +1289,7 @@
     <col min="5" max="5" width="8.36363636363636" customWidth="1"/>
     <col min="6" max="6" width="3.54545454545455" customWidth="1"/>
     <col min="7" max="7" width="17.9090909090909" customWidth="1"/>
+    <col min="9" max="9" width="11.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="23.5" spans="2:2">
@@ -1205,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:10">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1224,26 +1316,35 @@
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="3:7">
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5">
         <v>120</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E7" s="5">
         <v>15</v>
@@ -1252,23 +1353,23 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="6" t="s">
-        <v>10</v>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7"/>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
@@ -1288,10 +1389,10 @@
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5">
         <v>50</v>
@@ -1301,10 +1402,10 @@
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5">
         <v>80</v>
@@ -1314,45 +1415,67 @@
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
+        <v>22</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5">
         <v>15</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5">
         <v>12</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5" t="s">
-        <v>17</v>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1366,8 +1489,8 @@
   <sheetPr/>
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1383,7 +1506,7 @@
   <sheetData>
     <row r="3" ht="23.5" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1391,138 +1514,150 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/M03DB/S02/Editorial-c.xlsx
+++ b/M03DB/S02/Editorial-c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23530" windowHeight="12470" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>2) Modelo Lógico: Schema</t>
   </si>
@@ -51,27 +51,15 @@
     <t>FK</t>
   </si>
   <si>
-    <t>Primary Key</t>
-  </si>
-  <si>
     <t>domicilio</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>Foreign Key</t>
-  </si>
-  <si>
     <t>teléfono</t>
   </si>
   <si>
     <t>código</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Empleados</t>
   </si>
   <si>
@@ -84,9 +72,6 @@
     <t>fec. nac.</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>fec. ing.</t>
   </si>
   <si>
@@ -96,19 +81,19 @@
     <t>cod_suc</t>
   </si>
   <si>
-    <t>Sucursales(código)</t>
-  </si>
-  <si>
     <t>2) Modelo Lógico: Catálogo de Datos</t>
   </si>
   <si>
+    <t>Código</t>
+  </si>
+  <si>
     <t>Domicilio</t>
   </si>
   <si>
     <t>Teléfono</t>
   </si>
   <si>
-    <t>Código</t>
+    <t>CDMXSUR1</t>
   </si>
   <si>
     <t>Lagos 15</t>
@@ -117,7 +102,7 @@
     <t>55 1020 3015</t>
   </si>
   <si>
-    <t>CDMXSUR1</t>
+    <t>CDMXSUR2</t>
   </si>
   <si>
     <t>Corregidora 20</t>
@@ -126,7 +111,7 @@
     <t>55 2020 3015</t>
   </si>
   <si>
-    <t>CDMXSUR2</t>
+    <t>GDLOTE1</t>
   </si>
   <si>
     <t>Bosques 25</t>
@@ -135,7 +120,7 @@
     <t>55 1020 3025</t>
   </si>
   <si>
-    <t>GDLOTE1</t>
+    <t>MTYNTE1</t>
   </si>
   <si>
     <t>Ríos 20</t>
@@ -144,7 +129,7 @@
     <t>55 1020 2028</t>
   </si>
   <si>
-    <t>MTYNTE1</t>
+    <t>RFC</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -153,49 +138,46 @@
     <t>Apellidos</t>
   </si>
   <si>
-    <t>RFC</t>
-  </si>
-  <si>
     <t>Cod_suc</t>
   </si>
   <si>
+    <t>AAA0115</t>
+  </si>
+  <si>
     <t>Joshua</t>
   </si>
   <si>
     <t>Rodríguez</t>
   </si>
   <si>
-    <t>AAA0115</t>
-  </si>
-  <si>
     <t>55 1020 3010</t>
   </si>
   <si>
+    <t>BBBB22B</t>
+  </si>
+  <si>
     <t>Aurora</t>
   </si>
   <si>
     <t>Fernández</t>
   </si>
   <si>
-    <t>BBBB22B</t>
-  </si>
-  <si>
     <t>55 2020 3010</t>
   </si>
   <si>
+    <t>FCD1587</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>FCD1587</t>
+    <t>RGH2548</t>
   </si>
   <si>
     <t>Alberto</t>
   </si>
   <si>
     <t>Pérez</t>
-  </si>
-  <si>
-    <t>RGH2548</t>
   </si>
   <si>
     <t>55 1020 3021</t>
@@ -211,7 +193,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,14 +219,6 @@
       <b/>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -402,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,18 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3A4E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,70 +709,76 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,10 +787,10 @@
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,10 +799,10 @@
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,10 +811,10 @@
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,42 +823,38 @@
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,7 +865,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -963,16 +927,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400685</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -981,8 +945,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="4218305" y="979170"/>
-          <a:ext cx="1312545" cy="1212215"/>
+          <a:off x="7518400" y="1586230"/>
+          <a:ext cx="1356995" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1275,29 +1239,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:J20"/>
+  <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.63636363636364" customWidth="1"/>
-    <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="7.81818181818182" customWidth="1"/>
-    <col min="5" max="5" width="8.36363636363636" customWidth="1"/>
-    <col min="6" max="6" width="3.54545454545455" customWidth="1"/>
-    <col min="7" max="7" width="17.9090909090909" customWidth="1"/>
-    <col min="9" max="9" width="11.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="3.63809523809524" customWidth="1"/>
+    <col min="2" max="2" width="13.0952380952381" customWidth="1"/>
+    <col min="4" max="4" width="7.81904761904762" customWidth="1"/>
+    <col min="5" max="5" width="8.36190476190476" customWidth="1"/>
+    <col min="6" max="6" width="3.54285714285714" customWidth="1"/>
+    <col min="7" max="7" width="17.9047619047619" customWidth="1"/>
+    <col min="9" max="9" width="11.5428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="23.5" spans="2:2">
+    <row r="3" ht="23.25" spans="2:2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1316,62 +1280,51 @@
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>120</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1388,95 +1341,67 @@
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="5">
-        <v>50</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5">
-        <v>80</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="5">
-        <v>22</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="5">
-        <v>15</v>
-      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5">
-        <v>12</v>
-      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1487,26 +1412,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G17"/>
+  <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="14.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="12.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="11.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="12.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="11.0909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="13.0952380952381" customWidth="1"/>
+    <col min="3" max="3" width="11.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="12.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="11.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="10.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="23.5" spans="2:2">
+    <row r="3" ht="23.25" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1514,145 +1438,145 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="5" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="5" t="s">
+    <row r="9" spans="3:5">
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="5" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" t="s">
+      <c r="F16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="5" t="s">
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>29</v>
+      <c r="G20" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
